--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:30:27+00:00</t>
+    <t>2024-01-25T17:55:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-25T17:55:23+00:00</t>
+    <t>2024-01-26T18:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T18:28:41+00:00</t>
+    <t>2024-01-29T09:55:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1620,6 +1623,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1970,7 +1988,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -2085,7 +2103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -2202,7 +2220,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -2317,7 +2335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2434,7 +2452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>109</v>
       </c>
@@ -2551,7 +2569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
@@ -2668,7 +2686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>126</v>
       </c>
@@ -2785,7 +2803,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>133</v>
       </c>
@@ -2902,7 +2920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>144</v>
       </c>
@@ -3021,7 +3039,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>149</v>
       </c>
@@ -3140,7 +3158,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>157</v>
       </c>
@@ -3159,7 +3177,7 @@
         <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>80</v>
@@ -3259,7 +3277,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>167</v>
       </c>
@@ -3278,7 +3296,7 @@
         <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>80</v>
@@ -3376,7 +3394,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>175</v>
       </c>
@@ -3395,7 +3413,7 @@
         <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>80</v>
@@ -3495,7 +3513,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>181</v>
       </c>
@@ -3514,7 +3532,7 @@
         <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>80</v>
@@ -3612,7 +3630,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>187</v>
       </c>
@@ -3731,7 +3749,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>195</v>
       </c>
@@ -3848,7 +3866,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>205</v>
       </c>
@@ -3967,7 +3985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>212</v>
       </c>
@@ -3986,7 +4004,7 @@
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
@@ -4084,7 +4102,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>220</v>
       </c>
@@ -4103,7 +4121,7 @@
         <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
@@ -4201,7 +4219,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>229</v>
       </c>
@@ -4220,7 +4238,7 @@
         <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
@@ -4320,7 +4338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>237</v>
       </c>
@@ -4437,7 +4455,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>244</v>
       </c>
@@ -4456,7 +4474,7 @@
         <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
@@ -4554,7 +4572,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>251</v>
       </c>
@@ -4673,7 +4691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>258</v>
       </c>
@@ -4790,7 +4808,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>268</v>
       </c>
@@ -4907,7 +4925,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>275</v>
       </c>
@@ -5026,7 +5044,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>282</v>
       </c>
@@ -5045,7 +5063,7 @@
         <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
@@ -5143,7 +5161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>289</v>
       </c>
@@ -5162,7 +5180,7 @@
         <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>80</v>
@@ -5262,7 +5280,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>296</v>
       </c>
@@ -5281,7 +5299,7 @@
         <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5381,7 +5399,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>305</v>
       </c>
@@ -5500,7 +5518,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>316</v>
       </c>
@@ -5519,7 +5537,7 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
@@ -5617,7 +5635,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>324</v>
       </c>
@@ -5732,7 +5750,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>328</v>
       </c>
@@ -5849,7 +5867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>331</v>
       </c>
@@ -5968,7 +5986,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>336</v>
       </c>
@@ -6087,7 +6105,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>342</v>
       </c>
@@ -6106,7 +6124,7 @@
         <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
@@ -6206,7 +6224,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>348</v>
       </c>
@@ -6325,7 +6343,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>353</v>
       </c>
@@ -6444,7 +6462,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>360</v>
       </c>
@@ -6561,7 +6579,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>364</v>
       </c>
@@ -6680,7 +6698,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>372</v>
       </c>
@@ -6799,7 +6817,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>378</v>
       </c>
@@ -6914,7 +6932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>379</v>
       </c>
@@ -7031,7 +7049,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>380</v>
       </c>
@@ -7150,7 +7168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>381</v>
       </c>
@@ -7267,7 +7285,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>385</v>
       </c>
@@ -7384,7 +7402,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>391</v>
       </c>
@@ -7499,7 +7517,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>398</v>
       </c>
@@ -7616,7 +7634,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>404</v>
       </c>
@@ -7635,7 +7653,7 @@
         <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
@@ -7735,7 +7753,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>410</v>
       </c>
@@ -7856,7 +7874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>416</v>
       </c>
@@ -7975,7 +7993,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>422</v>
       </c>
@@ -8092,7 +8110,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>428</v>
       </c>
@@ -8111,7 +8129,7 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8209,7 +8227,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>434</v>
       </c>
@@ -8326,7 +8344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>438</v>
       </c>
@@ -8441,7 +8459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>439</v>
       </c>
@@ -8558,7 +8576,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>440</v>
       </c>
@@ -8677,7 +8695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>441</v>
       </c>
@@ -8794,7 +8812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>446</v>
       </c>
@@ -8913,7 +8931,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>451</v>
       </c>
@@ -9032,7 +9050,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>457</v>
       </c>
@@ -9147,7 +9165,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>458</v>
       </c>
@@ -9264,7 +9282,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>459</v>
       </c>
@@ -9383,7 +9401,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>460</v>
       </c>
@@ -9500,7 +9518,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>465</v>
       </c>
@@ -9620,6 +9638,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO66">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI65">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T09:55:10+00:00</t>
+    <t>2024-01-29T16:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T16:18:50+00:00</t>
+    <t>2024-01-29T17:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T17:19:23+00:00</t>
+    <t>2024-01-29T18:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T18:07:49+00:00</t>
+    <t>2024-01-29T18:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T18:45:36+00:00</t>
+    <t>2024-01-30T18:03:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T18:03:32+00:00</t>
+    <t>2024-01-30T19:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T19:10:16+00:00</t>
+    <t>2024-01-30T20:20:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T20:20:44+00:00</t>
+    <t>2024-01-30T20:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T20:36:49+00:00</t>
+    <t>2024-01-31T09:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T09:58:08+00:00</t>
+    <t>2024-01-31T13:01:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T13:01:24+00:00</t>
+    <t>2024-01-31T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T14:52:20+00:00</t>
+    <t>2024-01-31T15:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T15:44:28+00:00</t>
+    <t>2024-01-31T17:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:33:42+00:00</t>
+    <t>2024-01-31T17:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:34:59+00:00</t>
+    <t>2024-01-31T17:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:53:22+00:00</t>
+    <t>2024-02-01T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T09:35:36+00:00</t>
+    <t>2024-02-01T10:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T10:32:02+00:00</t>
+    <t>2024-02-01T10:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T10:54:31+00:00</t>
+    <t>2024-02-01T11:14:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T11:14:35+00:00</t>
+    <t>2024-02-01T13:00:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T13:00:03+00:00</t>
+    <t>2024-02-01T16:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T16:21:00+00:00</t>
+    <t>2024-02-01T16:42:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T16:42:37+00:00</t>
+    <t>2024-02-01T17:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -973,7 +973,7 @@
 </t>
   </si>
   <si>
-    <t>Concept that represents the overall questionnaire</t>
+    <t>Catégorie(s) d'EG pour lesquelles cette fiche de consigne de saisie est disponible</t>
   </si>
   <si>
     <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>
@@ -985,13 +985,7 @@
     <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for questionnaires, groups and individual questions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J55-CategorieEG-ROR/FHIR/JDV-J55-CategorieEG-ROR</t>
   </si>
   <si>
     <t>.code</t>
@@ -1121,6 +1115,15 @@
   </si>
   <si>
     <t>Allows linking of groups of questions to formal terminologies.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for questionnaires, groups and individual questions.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions</t>
   </si>
   <si>
     <t>Questionnaire.item.prefix</t>
@@ -1846,7 +1849,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="86.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.6953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="83.44921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -5415,10 +5418,10 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
@@ -5464,13 +5467,11 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y31" s="2"/>
+      <c r="Z31" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5506,7 +5507,7 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5515,15 +5516,15 @@
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5546,16 +5547,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5605,7 +5606,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5614,16 +5615,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5637,10 +5638,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5666,10 +5667,10 @@
         <v>168</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5720,7 +5721,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5752,10 +5753,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5784,7 +5785,7 @@
         <v>136</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>138</v>
@@ -5837,7 +5838,7 @@
         <v>141</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5869,14 +5870,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5898,10 +5899,10 @@
         <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>138</v>
@@ -5956,7 +5957,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5988,10 +5989,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6017,16 +6018,16 @@
         <v>168</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6075,7 +6076,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6093,7 +6094,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6107,10 +6108,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6136,16 +6137,16 @@
         <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6194,7 +6195,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6212,7 +6213,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6226,10 +6227,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6255,16 +6256,16 @@
         <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6289,13 +6290,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6313,7 +6314,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6322,7 +6323,7 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>100</v>
@@ -6331,7 +6332,7 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6340,19 +6341,19 @@
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6374,16 +6375,16 @@
         <v>168</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6432,7 +6433,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6450,7 +6451,7 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6464,10 +6465,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6493,13 +6494,13 @@
         <v>168</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6549,7 +6550,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6581,10 +6582,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6610,16 +6611,16 @@
         <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6647,10 +6648,10 @@
         <v>199</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6668,7 +6669,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -6686,7 +6687,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6700,10 +6701,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6726,19 +6727,19 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6787,7 +6788,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6799,13 +6800,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6819,10 +6820,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6848,10 +6849,10 @@
         <v>168</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6902,7 +6903,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6934,10 +6935,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6966,7 +6967,7 @@
         <v>136</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>138</v>
@@ -7019,7 +7020,7 @@
         <v>141</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7051,14 +7052,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7080,10 +7081,10 @@
         <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>138</v>
@@ -7138,7 +7139,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7170,10 +7171,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7199,13 +7200,13 @@
         <v>168</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7255,7 +7256,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
@@ -7273,7 +7274,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7287,10 +7288,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7316,13 +7317,13 @@
         <v>110</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7351,10 +7352,10 @@
         <v>199</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7372,7 +7373,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>87</v>
@@ -7390,7 +7391,7 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7404,10 +7405,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7430,13 +7431,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7463,13 +7464,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7487,7 +7488,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
@@ -7496,7 +7497,7 @@
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>100</v>
@@ -7505,7 +7506,7 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7519,10 +7520,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7548,13 +7549,13 @@
         <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7583,10 +7584,10 @@
         <v>199</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7604,7 +7605,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7613,7 +7614,7 @@
         <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>100</v>
@@ -7622,7 +7623,7 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7636,10 +7637,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7665,20 +7666,20 @@
         <v>206</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>80</v>
@@ -7723,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7732,7 +7733,7 @@
         <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>100</v>
@@ -7741,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7755,10 +7756,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7784,76 +7785,76 @@
         <v>206</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q51" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q51" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF51" t="s" s="2">
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI51" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>100</v>
@@ -7862,7 +7863,7 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7876,10 +7877,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7905,16 +7906,16 @@
         <v>206</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7963,7 +7964,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7972,7 +7973,7 @@
         <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>100</v>
@@ -7981,7 +7982,7 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -7995,10 +7996,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8021,16 +8022,16 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8080,7 +8081,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8089,7 +8090,7 @@
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>100</v>
@@ -8098,7 +8099,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8112,10 +8113,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8138,16 +8139,16 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8197,7 +8198,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8206,7 +8207,7 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
@@ -8215,7 +8216,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8229,10 +8230,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8255,16 +8256,16 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8314,7 +8315,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8323,7 +8324,7 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8332,7 +8333,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8346,10 +8347,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8375,10 +8376,10 @@
         <v>168</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8429,7 +8430,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8461,10 +8462,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8493,7 +8494,7 @@
         <v>136</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>138</v>
@@ -8546,7 +8547,7 @@
         <v>141</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8578,14 +8579,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8607,10 +8608,10 @@
         <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>138</v>
@@ -8665,7 +8666,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8697,10 +8698,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8723,16 +8724,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8758,13 +8759,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8782,7 +8783,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>87</v>
@@ -8800,7 +8801,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8814,10 +8815,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8843,20 +8844,20 @@
         <v>206</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>80</v>
@@ -8901,7 +8902,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8919,7 +8920,7 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8933,10 +8934,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8959,19 +8960,19 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9020,7 +9021,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9029,7 +9030,7 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>100</v>
@@ -9038,7 +9039,7 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9052,10 +9053,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9081,10 +9082,10 @@
         <v>168</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9135,7 +9136,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9167,10 +9168,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9199,7 +9200,7 @@
         <v>136</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>138</v>
@@ -9252,7 +9253,7 @@
         <v>141</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9284,14 +9285,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9313,10 +9314,10 @@
         <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>138</v>
@@ -9371,7 +9372,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9403,10 +9404,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9429,16 +9430,16 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9464,13 +9465,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9488,7 +9489,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>87</v>
@@ -9506,7 +9507,7 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9520,10 +9521,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9549,16 +9550,16 @@
         <v>81</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9607,7 +9608,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9616,7 +9617,7 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>80</v>
@@ -9625,7 +9626,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T17:08:29+00:00</t>
+    <t>2024-02-01T17:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -973,7 +973,7 @@
 </t>
   </si>
   <si>
-    <t>Catégorie(s) d'EG pour lesquelles cette fiche de consigne de saisie est disponible</t>
+    <t>Catégorie(s) d'EG pour la(es)quelle(s) cette fiche de consigne de saisie est disponible</t>
   </si>
   <si>
     <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T17:43:36+00:00</t>
+    <t>2024-02-01T18:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -607,7 +607,7 @@
 </t>
   </si>
   <si>
-    <t>Instantiates protocol or definition</t>
+    <t>Fiche(s) de saisie source</t>
   </si>
   <si>
     <t>The URL of a Questionnaire that this Questionnaire is based on.</t>
@@ -3652,7 +3652,7 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>80</v>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T18:39:39+00:00</t>
+    <t>2024-02-02T08:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -607,7 +607,7 @@
 </t>
   </si>
   <si>
-    <t>Fiche(s) de saisie source</t>
+    <t>Fiche(s) de saisie parente(s)</t>
   </si>
   <si>
     <t>The URL of a Questionnaire that this Questionnaire is based on.</t>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T08:32:51+00:00</t>
+    <t>2024-02-02T08:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T08:59:39+00:00</t>
+    <t>2024-02-02T10:38:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T10:38:11+00:00</t>
+    <t>2024-02-02T13:56:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T13:56:21+00:00</t>
+    <t>2024-02-02T16:42:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T16:42:05+00:00</t>
+    <t>2024-02-02T19:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T19:41:48+00:00</t>
+    <t>2024-02-02T21:16:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T21:16:55+00:00</t>
+    <t>2024-02-02T22:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -805,7 +805,7 @@
 </t>
   </si>
   <si>
-    <t>The context that the content is intended to support</t>
+    <t>Catégorie(s) d'EG pour la(es)quelle(s) cette fiche de consigne de saisie est disponible</t>
   </si>
   <si>
     <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>
@@ -820,13 +820,106 @@
     <t>Definition.useContext</t>
   </si>
   <si>
-    <t>Questionnaire.jurisdiction</t>
+    <t>Questionnaire.useContext.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Type of context being specified</t>
+  </si>
+  <si>
+    <t>A code that identifies the type of context being specified by this usage context.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A code that specifies a type of context being specified by a usage context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/usage-context-type</t>
+  </si>
+  <si>
+    <t>UsageContext.code</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext.value[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+QuantityRangeReference(PlanDefinition|ResearchStudy|InsurancePlan|HealthcareService|Group|Location|Organization)</t>
+  </si>
+  <si>
+    <t>Value that defines the context</t>
+  </si>
+  <si>
+    <t>A value that defines the context specified in this context of use. The interpretation of the value is defined by the code.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A code that defines the specific value for the context being specified.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/use-context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>UsageContext.value[x]</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J55-CategorieEG-ROR/FHIR/JDV-J55-CategorieEG-ROR</t>
+  </si>
+  <si>
+    <t>Questionnaire.jurisdiction</t>
+  </si>
+  <si>
     <t>Intended jurisdiction for questionnaire (if applicable)</t>
   </si>
   <si>
@@ -834,9 +927,6 @@
   </si>
   <si>
     <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Countries and regions within which this artifact is targeted for use.</t>
@@ -969,29 +1059,22 @@
     <t>Questionnaire.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Catégorie(s) d'EG pour la(es)quelle(s) cette fiche de consigne de saisie est disponible</t>
+    <t>Concept that represents the overall questionnaire</t>
   </si>
   <si>
     <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
-  </si>
-  <si>
     <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J55-CategorieEG-ROR/FHIR/JDV-J55-CategorieEG-ROR</t>
+    <t>Codes for questionnaires, groups and individual questions.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions</t>
   </si>
   <si>
     <t>.code</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
   </si>
   <si>
     <t>Questionnaire.item</t>
@@ -1024,22 +1107,7 @@
     <t>Questionnaire.item.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Questionnaire.item.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -1115,15 +1183,6 @@
   </si>
   <si>
     <t>Allows linking of groups of questions to formal terminologies.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for questionnaires, groups and individual questions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions</t>
   </si>
   <si>
     <t>Questionnaire.item.prefix</t>
@@ -1815,7 +1874,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO66"/>
+  <dimension ref="A1:AO71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1824,9 +1883,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.89453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1834,7 +1893,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="110.77734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4588,7 +4647,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4710,7 +4769,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4719,20 +4778,18 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4757,13 +4814,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4781,25 +4838,25 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4808,26 +4865,26 @@
         <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4839,16 +4896,16 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4886,43 +4943,43 @@
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4930,18 +4987,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -4953,23 +5010,21 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4993,13 +5048,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5017,10 +5072,10 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>87</v>
@@ -5032,27 +5087,27 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5060,32 +5115,30 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5110,34 +5163,32 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -5149,16 +5200,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5166,12 +5217,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5189,23 +5242,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5229,13 +5278,11 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5253,10 +5300,10 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>87</v>
@@ -5268,16 +5315,16 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>295</v>
+        <v>108</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5285,10 +5332,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5299,10 +5346,10 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5311,20 +5358,18 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5348,13 +5393,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5372,22 +5417,22 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>173</v>
@@ -5396,18 +5441,18 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5415,35 +5460,33 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5467,11 +5510,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5489,13 +5534,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5504,41 +5549,41 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
@@ -5547,18 +5592,20 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5606,31 +5653,31 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>319</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>321</v>
+        <v>173</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5638,10 +5685,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5655,7 +5702,7 @@
         <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
@@ -5664,15 +5711,17 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>168</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5721,7 +5770,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5730,22 +5779,22 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>108</v>
+        <v>317</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5753,24 +5802,24 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
@@ -5779,18 +5828,20 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>136</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5826,43 +5877,43 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -5870,45 +5921,45 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>138</v>
+        <v>329</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>147</v>
+        <v>330</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5957,34 +6008,34 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>143</v>
+        <v>331</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" hidden="true">
@@ -6000,10 +6051,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6012,10 +6063,10 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>335</v>
@@ -6024,10 +6075,10 @@
         <v>336</v>
       </c>
       <c r="N36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6052,13 +6103,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6079,10 +6130,10 @@
         <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>99</v>
@@ -6094,7 +6145,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6103,15 +6154,15 @@
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6122,7 +6173,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>88</v>
@@ -6134,20 +6185,18 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>103</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6195,25 +6244,25 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>99</v>
+        <v>346</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>347</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6227,10 +6276,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6241,7 +6290,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6253,20 +6302,16 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>168</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6290,13 +6335,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6314,25 +6359,25 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6341,26 +6386,26 @@
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>355</v>
+        <v>134</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6372,20 +6417,18 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>136</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6421,37 +6464,37 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>360</v>
+        <v>101</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6465,44 +6508,46 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6550,25 +6595,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6582,10 +6627,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6608,19 +6653,19 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6645,13 +6690,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6669,7 +6714,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -6687,7 +6732,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6701,10 +6746,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6715,31 +6760,31 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6788,25 +6833,25 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>378</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6820,10 +6865,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6834,7 +6879,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6846,16 +6891,20 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6879,13 +6928,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6903,25 +6952,25 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>108</v>
+        <v>340</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6930,26 +6979,26 @@
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>134</v>
+        <v>374</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -6961,18 +7010,20 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>136</v>
+        <v>375</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7008,37 +7059,37 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>101</v>
+        <v>379</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7052,46 +7103,44 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7139,25 +7188,25 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7171,10 +7220,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7197,18 +7246,20 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7232,13 +7283,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7256,7 +7307,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
@@ -7274,7 +7325,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7288,10 +7339,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7299,33 +7350,35 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>110</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7349,13 +7402,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7373,25 +7426,25 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7405,10 +7458,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7416,7 +7469,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>87</v>
@@ -7431,13 +7484,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>393</v>
+        <v>168</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>259</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
+        <v>260</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7464,13 +7517,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7488,25 +7541,25 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>392</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>372</v>
+        <v>108</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7527,14 +7580,14 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7546,16 +7599,16 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>400</v>
+        <v>136</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>401</v>
+        <v>263</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>402</v>
+        <v>138</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7581,49 +7634,49 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>399</v>
+        <v>264</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>404</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>372</v>
+        <v>101</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7637,50 +7690,50 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I50" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q50" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7724,25 +7777,25 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>410</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>372</v>
+        <v>101</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7756,10 +7809,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7767,7 +7820,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>87</v>
@@ -7782,26 +7835,22 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q51" t="s" s="2">
-        <v>416</v>
-      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7845,16 +7894,16 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>410</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>100</v>
@@ -7863,7 +7912,7 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7877,10 +7926,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7888,7 +7937,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -7903,20 +7952,18 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7940,13 +7987,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -7964,16 +8011,16 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>422</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>100</v>
@@ -7982,7 +8029,7 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -7996,10 +8043,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8007,7 +8054,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
@@ -8022,17 +8069,15 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8057,13 +8102,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8081,16 +8126,16 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>100</v>
@@ -8099,7 +8144,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8108,15 +8153,15 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8130,7 +8175,7 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8139,16 +8184,16 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>430</v>
+        <v>110</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8174,13 +8219,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8198,7 +8243,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8207,7 +8252,7 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
@@ -8216,7 +8261,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8230,10 +8275,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8244,10 +8289,10 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
@@ -8256,22 +8301,24 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>315</v>
+        <v>206</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="R55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8315,16 +8362,16 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8333,7 +8380,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8347,10 +8394,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8373,20 +8420,26 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="R56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8430,7 +8483,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>325</v>
+        <v>430</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8439,16 +8492,16 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>108</v>
+        <v>391</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8462,21 +8515,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8488,18 +8541,20 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>136</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>327</v>
+        <v>438</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8535,37 +8590,37 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>328</v>
+        <v>436</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>441</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>101</v>
+        <v>391</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8579,46 +8634,44 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>331</v>
+        <v>444</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>332</v>
+        <v>445</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8666,42 +8719,42 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>447</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8709,13 +8762,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
@@ -8724,16 +8777,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8759,13 +8812,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8783,16 +8836,16 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>453</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
@@ -8801,7 +8854,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8815,10 +8868,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8829,7 +8882,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8841,24 +8894,22 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>206</v>
+        <v>342</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q60" t="s" s="2">
-        <v>451</v>
-      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8902,16 +8953,16 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>453</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>100</v>
@@ -8920,7 +8971,7 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8934,10 +8985,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8948,7 +8999,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8960,20 +9011,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>453</v>
+        <v>259</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9021,25 +9068,25 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>452</v>
+        <v>261</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>372</v>
+        <v>108</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9053,21 +9100,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9079,15 +9126,17 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9124,37 +9173,37 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9168,14 +9217,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>134</v>
+        <v>352</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9188,24 +9237,26 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>136</v>
+        <v>353</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9241,19 +9292,19 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9285,46 +9336,44 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>135</v>
+        <v>462</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>331</v>
+        <v>463</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9348,13 +9397,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9372,25 +9421,25 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>333</v>
+        <v>461</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>101</v>
+        <v>391</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9404,10 +9453,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9415,7 +9464,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -9430,22 +9479,24 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>462</v>
+        <v>206</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="R65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9465,13 +9516,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9489,10 +9540,10 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>87</v>
@@ -9507,7 +9558,7 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9521,10 +9572,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9547,19 +9598,19 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9608,7 +9659,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9617,16 +9668,16 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9635,11 +9686,598 @@
         <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO66">
+  <autoFilter ref="A1:AO71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9649,7 +10287,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T22:06:01+00:00</t>
+    <t>2024-02-02T22:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -805,7 +805,7 @@
 </t>
   </si>
   <si>
-    <t>Catégorie(s) d'EG pour la(es)quelle(s) cette fiche de consigne de saisie est disponible</t>
+    <t>The context that the content is intended to support</t>
   </si>
   <si>
     <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>
@@ -820,261 +820,178 @@
     <t>Definition.useContext</t>
   </si>
   <si>
-    <t>Questionnaire.useContext.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext.code</t>
+    <t>Questionnaire.jurisdiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Intended jurisdiction for questionnaire (if applicable)</t>
+  </si>
+  <si>
+    <t>A legal or geographic region in which the questionnaire is intended to be used.</t>
+  </si>
+  <si>
+    <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Countries and regions within which this artifact is targeted for use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+  </si>
+  <si>
+    <t>Definition.jurisdiction</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
+    <t>Questionnaire.purpose</t>
+  </si>
+  <si>
+    <t>Why this questionnaire is defined</t>
+  </si>
+  <si>
+    <t>Explanation of why this questionnaire is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>This element does not describe the usage of the questionnaire. Instead, it provides traceability of ''why'' the resource is either needed or ''why'' it is defined as it is.  This may be used to point to source materials or specifications that drove the structure of this questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.purpose</t>
+  </si>
+  <si>
+    <t>.reasonCode.text</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>Questionnaire.copyright</t>
+  </si>
+  <si>
+    <t>License
+Restrictions</t>
+  </si>
+  <si>
+    <t>Use and/or publishing restrictions</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the questionnaire and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the questionnaire.</t>
+  </si>
+  <si>
+    <t>Systems are not required to have markdown support, so the text should be readable without markdown processing. The markdown syntax is GFM - see https://github.github.com/gfm/</t>
+  </si>
+  <si>
+    <t>Consumers must be able to determine any legal restrictions on the use of the questionnaire and/or its content.</t>
+  </si>
+  <si>
+    <t>Definition.copyright</t>
+  </si>
+  <si>
+    <t>Questionnaire.approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>Date de validation de la fiche de saisie</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>The 'date' element may be more recent than the approval date because of minor changes or editorial corrections.</t>
+  </si>
+  <si>
+    <t>Definition.approvalDate</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"].act[classCode=CACT;moodCode=EVN;code="approval"].effectiveTime</t>
+  </si>
+  <si>
+    <t>Questionnaire.lastReviewDate</t>
+  </si>
+  <si>
+    <t>Date de dernière revue de la fiche</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
+  </si>
+  <si>
+    <t>If specified, this date follows the original approval date.</t>
+  </si>
+  <si>
+    <t>Gives a sense of how "current" the content is.  Resources that have not been reviewed in a long time may have a risk of being less appropriate/relevant.</t>
+  </si>
+  <si>
+    <t>Definition.lastReviewDate</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"; subsetCode="RECENT"].act[classCode=CACT;moodCode=EVN;code="review"].effectiveTime</t>
+  </si>
+  <si>
+    <t>Questionnaire.effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Periode de validité de la fiche</t>
+  </si>
+  <si>
+    <t>The period during which the questionnaire content was or is planned to be in active use.</t>
+  </si>
+  <si>
+    <t>The effective period for a questionnaire  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 might be published in 2015.</t>
+  </si>
+  <si>
+    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the questionnaire are or are expected to be used instead.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>Definition.effectivePeriod</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Questionnaire.code</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Type of context being specified</t>
-  </si>
-  <si>
-    <t>A code that identifies the type of context being specified by this usage context.</t>
+    <t>Catégorie(s) d'EG pour la(es)quelle(s) cette fiche de consigne de saisie est disponible</t>
+  </si>
+  <si>
+    <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A code that specifies a type of context being specified by a usage context.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/usage-context-type</t>
-  </si>
-  <si>
-    <t>UsageContext.code</t>
-  </si>
-  <si>
-    <t>CV</t>
+    <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J55-CategorieEG-ROR/FHIR/JDV-J55-CategorieEG-ROR</t>
+  </si>
+  <si>
+    <t>.code</t>
   </si>
   <si>
     <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext.value[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-QuantityRangeReference(PlanDefinition|ResearchStudy|InsurancePlan|HealthcareService|Group|Location|Organization)</t>
-  </si>
-  <si>
-    <t>Value that defines the context</t>
-  </si>
-  <si>
-    <t>A value that defines the context specified in this context of use. The interpretation of the value is defined by the code.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code that defines the specific value for the context being specified.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/use-context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>UsageContext.value[x]</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J55-CategorieEG-ROR/FHIR/JDV-J55-CategorieEG-ROR</t>
-  </si>
-  <si>
-    <t>Questionnaire.jurisdiction</t>
-  </si>
-  <si>
-    <t>Intended jurisdiction for questionnaire (if applicable)</t>
-  </si>
-  <si>
-    <t>A legal or geographic region in which the questionnaire is intended to be used.</t>
-  </si>
-  <si>
-    <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
-  </si>
-  <si>
-    <t>Countries and regions within which this artifact is targeted for use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
-  </si>
-  <si>
-    <t>Definition.jurisdiction</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>Questionnaire.purpose</t>
-  </si>
-  <si>
-    <t>Why this questionnaire is defined</t>
-  </si>
-  <si>
-    <t>Explanation of why this questionnaire is needed and why it has been designed as it has.</t>
-  </si>
-  <si>
-    <t>This element does not describe the usage of the questionnaire. Instead, it provides traceability of ''why'' the resource is either needed or ''why'' it is defined as it is.  This may be used to point to source materials or specifications that drove the structure of this questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.purpose</t>
-  </si>
-  <si>
-    <t>.reasonCode.text</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>Questionnaire.copyright</t>
-  </si>
-  <si>
-    <t>License
-Restrictions</t>
-  </si>
-  <si>
-    <t>Use and/or publishing restrictions</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the questionnaire and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the questionnaire.</t>
-  </si>
-  <si>
-    <t>Systems are not required to have markdown support, so the text should be readable without markdown processing. The markdown syntax is GFM - see https://github.github.com/gfm/</t>
-  </si>
-  <si>
-    <t>Consumers must be able to determine any legal restrictions on the use of the questionnaire and/or its content.</t>
-  </si>
-  <si>
-    <t>Definition.copyright</t>
-  </si>
-  <si>
-    <t>Questionnaire.approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>Date de validation de la fiche de saisie</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>The 'date' element may be more recent than the approval date because of minor changes or editorial corrections.</t>
-  </si>
-  <si>
-    <t>Definition.approvalDate</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"].act[classCode=CACT;moodCode=EVN;code="approval"].effectiveTime</t>
-  </si>
-  <si>
-    <t>Questionnaire.lastReviewDate</t>
-  </si>
-  <si>
-    <t>Date de dernière revue de la fiche</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
-  </si>
-  <si>
-    <t>If specified, this date follows the original approval date.</t>
-  </si>
-  <si>
-    <t>Gives a sense of how "current" the content is.  Resources that have not been reviewed in a long time may have a risk of being less appropriate/relevant.</t>
-  </si>
-  <si>
-    <t>Definition.lastReviewDate</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"; subsetCode="RECENT"].act[classCode=CACT;moodCode=EVN;code="review"].effectiveTime</t>
-  </si>
-  <si>
-    <t>Questionnaire.effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Periode de validité de la fiche</t>
-  </si>
-  <si>
-    <t>The period during which the questionnaire content was or is planned to be in active use.</t>
-  </si>
-  <si>
-    <t>The effective period for a questionnaire  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 might be published in 2015.</t>
-  </si>
-  <si>
-    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the questionnaire are or are expected to be used instead.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>Definition.effectivePeriod</t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>Questionnaire.code</t>
-  </si>
-  <si>
-    <t>Concept that represents the overall questionnaire</t>
-  </si>
-  <si>
-    <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>
-  </si>
-  <si>
-    <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
-  </si>
-  <si>
-    <t>Codes for questionnaires, groups and individual questions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions</t>
-  </si>
-  <si>
-    <t>.code</t>
   </si>
   <si>
     <t>Questionnaire.item</t>
@@ -1107,7 +1024,22 @@
     <t>Questionnaire.item.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t>Questionnaire.item.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -1183,6 +1115,15 @@
   </si>
   <si>
     <t>Allows linking of groups of questions to formal terminologies.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for questionnaires, groups and individual questions.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions</t>
   </si>
   <si>
     <t>Questionnaire.item.prefix</t>
@@ -1874,7 +1815,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO71"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1883,9 +1824,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.89453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1893,7 +1834,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.77734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4647,7 +4588,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4769,7 +4710,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4778,18 +4719,20 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4814,13 +4757,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4838,25 +4781,25 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4865,26 +4808,26 @@
         <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4896,16 +4839,16 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4943,43 +4886,43 @@
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>101</v>
+        <v>273</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4987,18 +4930,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -5010,21 +4953,23 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5048,13 +4993,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5072,10 +5017,10 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>87</v>
@@ -5087,27 +5032,27 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5115,30 +5060,32 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5163,32 +5110,34 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -5200,16 +5149,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5217,14 +5166,12 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5242,19 +5189,23 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5278,11 +5229,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5300,10 +5253,10 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>87</v>
@@ -5315,16 +5268,16 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5332,10 +5285,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5346,10 +5299,10 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5358,18 +5311,20 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5393,13 +5348,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5417,22 +5372,22 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>173</v>
@@ -5441,18 +5396,18 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5460,33 +5415,35 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5510,13 +5467,11 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5534,13 +5489,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5549,41 +5504,41 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
@@ -5592,20 +5547,18 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5653,31 +5606,31 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5685,10 +5638,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5702,7 +5655,7 @@
         <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
@@ -5711,17 +5664,15 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>312</v>
+        <v>168</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5770,7 +5721,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5779,22 +5730,22 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5802,24 +5753,24 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
@@ -5828,20 +5779,18 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>312</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>319</v>
+        <v>136</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5877,43 +5826,43 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>324</v>
+        <v>101</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -5921,45 +5870,45 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>326</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>329</v>
+        <v>138</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>330</v>
+        <v>147</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6008,34 +5957,34 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>331</v>
+        <v>143</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" hidden="true">
@@ -6051,10 +6000,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6063,10 +6012,10 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>335</v>
@@ -6075,10 +6024,10 @@
         <v>336</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6103,13 +6052,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6130,10 +6079,10 @@
         <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>99</v>
@@ -6145,7 +6094,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6154,15 +6103,15 @@
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6173,7 +6122,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>88</v>
@@ -6185,18 +6134,20 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6244,25 +6195,25 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>346</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>347</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6276,10 +6227,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6290,7 +6241,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6302,16 +6253,20 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6335,13 +6290,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6359,25 +6314,25 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6386,26 +6341,26 @@
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>134</v>
+        <v>355</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6417,18 +6372,20 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>136</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>357</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6464,37 +6421,37 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>101</v>
+        <v>360</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6508,46 +6465,44 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6595,25 +6550,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6627,10 +6582,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6653,19 +6608,19 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6690,13 +6645,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6714,7 +6669,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -6732,7 +6687,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6746,10 +6701,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6760,31 +6715,31 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I42" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6833,25 +6788,25 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>378</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6865,10 +6820,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6879,7 +6834,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6891,20 +6846,16 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6928,13 +6879,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6952,25 +6903,25 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>108</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6979,26 +6930,26 @@
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>374</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7010,20 +6961,18 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>375</v>
+        <v>136</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7059,37 +7008,37 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>379</v>
+        <v>101</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7103,44 +7052,46 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7188,25 +7139,25 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7220,10 +7171,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7246,20 +7197,18 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>388</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7283,13 +7232,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7307,7 +7256,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
@@ -7325,7 +7274,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7339,10 +7288,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7350,35 +7299,33 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>342</v>
+        <v>110</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7402,13 +7349,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7426,25 +7373,25 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7458,10 +7405,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7469,7 +7416,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>87</v>
@@ -7484,13 +7431,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>168</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>260</v>
+        <v>395</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7517,13 +7464,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7541,25 +7488,25 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>261</v>
+        <v>392</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>108</v>
+        <v>372</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7580,14 +7527,14 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7599,16 +7546,16 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>136</v>
+        <v>400</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>263</v>
+        <v>401</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>138</v>
+        <v>402</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7634,49 +7581,49 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>403</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>404</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>101</v>
+        <v>372</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7690,50 +7637,50 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="R50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7777,25 +7724,25 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>410</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>101</v>
+        <v>372</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7809,10 +7756,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7820,7 +7767,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>87</v>
@@ -7835,22 +7782,26 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="R51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7894,16 +7845,16 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>410</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>100</v>
@@ -7912,7 +7863,7 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7926,10 +7877,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7937,7 +7888,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -7952,18 +7903,20 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7987,13 +7940,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8011,16 +7964,16 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>422</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>100</v>
@@ -8029,7 +7982,7 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8043,10 +7996,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8054,7 +8007,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
@@ -8069,15 +8022,17 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8102,13 +8057,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8126,16 +8081,16 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>100</v>
@@ -8144,7 +8099,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8153,15 +8108,15 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8175,7 +8130,7 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8184,16 +8139,16 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8219,13 +8174,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8243,7 +8198,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8252,7 +8207,7 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
@@ -8261,7 +8216,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8275,10 +8230,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8289,10 +8244,10 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
@@ -8301,24 +8256,22 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>428</v>
-      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8362,16 +8315,16 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8380,7 +8333,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8394,10 +8347,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8420,26 +8373,20 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q56" t="s" s="2">
-        <v>435</v>
-      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8483,7 +8430,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>430</v>
+        <v>325</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8492,16 +8439,16 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>391</v>
+        <v>108</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8515,21 +8462,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8541,20 +8488,18 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>136</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>438</v>
+        <v>327</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8590,37 +8535,37 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>436</v>
+        <v>328</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>441</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>391</v>
+        <v>101</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8634,44 +8579,46 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>443</v>
+        <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>444</v>
+        <v>331</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>445</v>
+        <v>332</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8719,25 +8666,25 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>442</v>
+        <v>333</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>447</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>391</v>
+        <v>101</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8746,15 +8693,15 @@
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8762,13 +8709,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
@@ -8777,16 +8724,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8812,13 +8759,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8836,16 +8783,16 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>453</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
@@ -8854,7 +8801,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8868,10 +8815,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8882,7 +8829,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8894,22 +8841,24 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>342</v>
+        <v>206</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="R60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8953,16 +8902,16 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>453</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>100</v>
@@ -8971,7 +8920,7 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8985,10 +8934,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8999,7 +8948,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9011,16 +8960,20 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>259</v>
+        <v>453</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9068,25 +9021,25 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>261</v>
+        <v>452</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>108</v>
+        <v>372</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9100,21 +9053,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9126,17 +9079,15 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>136</v>
+        <v>323</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9173,37 +9124,37 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9217,14 +9168,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>352</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9237,26 +9188,24 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>353</v>
+        <v>136</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O63" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9292,19 +9241,19 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9336,44 +9285,46 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>462</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>463</v>
+        <v>331</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>464</v>
+        <v>332</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9397,13 +9348,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9421,25 +9372,25 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>461</v>
+        <v>333</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>391</v>
+        <v>101</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9453,10 +9404,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9464,7 +9415,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -9479,24 +9430,22 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>206</v>
+        <v>462</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q65" t="s" s="2">
-        <v>470</v>
-      </c>
+      <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9516,13 +9465,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9540,10 +9489,10 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>87</v>
@@ -9558,7 +9507,7 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9572,10 +9521,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9598,19 +9547,19 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9659,7 +9608,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9668,16 +9617,16 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>391</v>
+        <v>472</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9686,598 +9635,11 @@
         <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO71" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO71">
+  <autoFilter ref="A1:AO66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10287,7 +9649,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T22:50:29+00:00</t>
+    <t>2024-02-02T23:12:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T23:12:26+00:00</t>
+    <t>2024-02-05T13:18:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="494">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T13:18:43+00:00</t>
+    <t>2024-02-05T15:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -805,7 +805,7 @@
 </t>
   </si>
   <si>
-    <t>The context that the content is intended to support</t>
+    <t>Contexte d'usage de la fiche de consignes de saisie de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable</t>
   </si>
   <si>
     <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>
@@ -820,13 +820,115 @@
     <t>Definition.useContext</t>
   </si>
   <si>
-    <t>Questionnaire.jurisdiction</t>
+    <t>Questionnaire.useContext.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Type of context being specified</t>
+  </si>
+  <si>
+    <t>A code that identifies the type of context being specified by this usage context.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R67-TypeStructure-EJ-EG/FHIR/TRE-R67-TypeStructure-EJ-EG"/&gt;
+  &lt;code value="EG"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A code that specifies a type of context being specified by a usage context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/usage-context-type</t>
+  </si>
+  <si>
+    <t>UsageContext.code</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext.value[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+QuantityRangeReference(PlanDefinition|ResearchStudy|InsurancePlan|HealthcareService|Group|Location|Organization)</t>
+  </si>
+  <si>
+    <t>Value that defines the context</t>
+  </si>
+  <si>
+    <t>A value that defines the context specified in this context of use. The interpretation of the value is defined by the code.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A code that defines the specific value for the context being specified.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/use-context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>UsageContext.value[x]</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Catégorie(s) d'EG pour la(es)quelle(s) cette fiche de consigne de saisie est disponible</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J55-CategorieEG-ROR/FHIR/JDV-J55-CategorieEG-ROR</t>
+  </si>
+  <si>
+    <t>Questionnaire.jurisdiction</t>
+  </si>
+  <si>
     <t>Intended jurisdiction for questionnaire (if applicable)</t>
   </si>
   <si>
@@ -834,9 +936,6 @@
   </si>
   <si>
     <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Countries and regions within which this artifact is targeted for use.</t>
@@ -969,29 +1068,22 @@
     <t>Questionnaire.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Catégorie(s) d'EG pour la(es)quelle(s) cette fiche de consigne de saisie est disponible</t>
+    <t>Concept that represents the overall questionnaire</t>
   </si>
   <si>
     <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
-  </si>
-  <si>
     <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J55-CategorieEG-ROR/FHIR/JDV-J55-CategorieEG-ROR</t>
+    <t>Codes for questionnaires, groups and individual questions.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions</t>
   </si>
   <si>
     <t>.code</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
   </si>
   <si>
     <t>Questionnaire.item</t>
@@ -1024,22 +1116,7 @@
     <t>Questionnaire.item.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Questionnaire.item.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -1115,15 +1192,6 @@
   </si>
   <si>
     <t>Allows linking of groups of questions to formal terminologies.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for questionnaires, groups and individual questions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions</t>
   </si>
   <si>
     <t>Questionnaire.item.prefix</t>
@@ -1815,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO66"/>
+  <dimension ref="A1:AO71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1824,9 +1892,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.89453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1834,7 +1902,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="110.77734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4588,13 +4656,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
@@ -4710,7 +4778,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4719,20 +4787,18 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4757,13 +4823,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4781,25 +4847,25 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4808,26 +4874,26 @@
         <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4839,16 +4905,16 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4886,43 +4952,43 @@
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4930,18 +4996,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -4953,23 +5019,21 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4978,7 +5042,7 @@
         <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -4993,13 +5057,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5017,10 +5081,10 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>87</v>
@@ -5032,27 +5096,27 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5060,32 +5124,30 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5110,34 +5172,32 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -5149,16 +5209,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5166,12 +5226,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5189,23 +5251,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5229,13 +5287,11 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5253,10 +5309,10 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>87</v>
@@ -5268,16 +5324,16 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>295</v>
+        <v>108</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5285,10 +5341,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5299,10 +5355,10 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5311,20 +5367,18 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5348,13 +5402,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5372,22 +5426,22 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>173</v>
@@ -5396,18 +5450,18 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5415,35 +5469,33 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5467,11 +5519,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5489,13 +5543,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5504,41 +5558,41 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
@@ -5547,18 +5601,20 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5606,31 +5662,31 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>319</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>321</v>
+        <v>173</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5638,10 +5694,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5655,7 +5711,7 @@
         <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
@@ -5664,15 +5720,17 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>168</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5721,7 +5779,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5730,22 +5788,22 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>108</v>
+        <v>319</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5753,24 +5811,24 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
@@ -5779,18 +5837,20 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>135</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5826,43 +5886,43 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>101</v>
+        <v>326</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -5870,45 +5930,45 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5957,42 +6017,42 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>143</v>
+        <v>333</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6000,10 +6060,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6012,22 +6072,22 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6052,13 +6112,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6076,13 +6136,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>99</v>
@@ -6094,7 +6154,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6103,15 +6163,15 @@
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6122,7 +6182,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>88</v>
@@ -6134,20 +6194,18 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>103</v>
+        <v>344</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6195,25 +6253,25 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>99</v>
+        <v>348</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6227,10 +6285,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6241,7 +6299,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6253,20 +6311,16 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>168</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6290,13 +6344,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6314,25 +6368,25 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6341,26 +6395,26 @@
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>355</v>
+        <v>134</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6372,20 +6426,18 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>136</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
+        <v>263</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6421,37 +6473,37 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>360</v>
+        <v>101</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6465,44 +6517,46 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6550,25 +6604,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6582,10 +6636,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6608,19 +6662,19 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6645,13 +6699,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6669,7 +6723,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -6687,7 +6741,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6701,10 +6755,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6715,31 +6769,31 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6788,25 +6842,25 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>378</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6820,10 +6874,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6834,7 +6888,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6846,16 +6900,20 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6879,13 +6937,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6903,25 +6961,25 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>108</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6930,26 +6988,26 @@
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>134</v>
+        <v>376</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -6961,18 +7019,20 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>136</v>
+        <v>377</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7008,37 +7068,37 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>101</v>
+        <v>381</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7052,46 +7112,44 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7139,25 +7197,25 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7171,10 +7229,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7197,18 +7255,20 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7232,13 +7292,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7256,7 +7316,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
@@ -7274,7 +7334,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7288,10 +7348,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7299,33 +7359,35 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>110</v>
+        <v>344</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7349,13 +7411,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7373,25 +7435,25 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>399</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7405,10 +7467,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7416,7 +7478,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>87</v>
@@ -7431,13 +7493,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>393</v>
+        <v>168</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>259</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>395</v>
+        <v>260</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7464,13 +7526,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7488,25 +7550,25 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>392</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>372</v>
+        <v>108</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7520,21 +7582,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7546,16 +7608,16 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>400</v>
+        <v>136</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>401</v>
+        <v>263</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>402</v>
+        <v>138</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7581,49 +7643,49 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>399</v>
+        <v>264</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>404</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>372</v>
+        <v>101</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7637,50 +7699,50 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I50" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q50" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7724,25 +7786,25 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>410</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>372</v>
+        <v>101</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7756,10 +7818,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7767,7 +7829,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>87</v>
@@ -7782,26 +7844,22 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q51" t="s" s="2">
-        <v>416</v>
-      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7845,16 +7903,16 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>410</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>100</v>
@@ -7863,7 +7921,7 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7877,10 +7935,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7888,7 +7946,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -7903,20 +7961,18 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7940,13 +7996,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -7964,16 +8020,16 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>422</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>100</v>
@@ -7982,7 +8038,7 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -7996,10 +8052,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8007,7 +8063,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
@@ -8022,17 +8078,15 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8057,13 +8111,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8081,16 +8135,16 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>100</v>
@@ -8099,7 +8153,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8108,15 +8162,15 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8130,7 +8184,7 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8139,16 +8193,16 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>430</v>
+        <v>110</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8174,13 +8228,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8198,7 +8252,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8207,7 +8261,7 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
@@ -8216,7 +8270,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8230,10 +8284,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8244,10 +8298,10 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
@@ -8256,22 +8310,24 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>315</v>
+        <v>206</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="R55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8315,16 +8371,16 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8333,7 +8389,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8347,10 +8403,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8373,20 +8429,26 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>323</v>
+        <v>433</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="R56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8430,7 +8492,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>325</v>
+        <v>432</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8439,16 +8501,16 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>108</v>
+        <v>393</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8462,21 +8524,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8488,18 +8550,20 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>136</v>
+        <v>439</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>327</v>
+        <v>440</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8535,37 +8599,37 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>328</v>
+        <v>438</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>443</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>101</v>
+        <v>393</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8579,46 +8643,44 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>445</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>331</v>
+        <v>446</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>332</v>
+        <v>447</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8666,42 +8728,42 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>449</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8709,13 +8771,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
@@ -8724,16 +8786,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8759,13 +8821,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8783,16 +8845,16 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>455</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
@@ -8801,7 +8863,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8815,10 +8877,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8829,7 +8891,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8841,24 +8903,22 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>206</v>
+        <v>344</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q60" t="s" s="2">
-        <v>451</v>
-      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8902,16 +8962,16 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>455</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>100</v>
@@ -8920,7 +8980,7 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8934,10 +8994,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8948,7 +9008,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8960,20 +9020,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>453</v>
+        <v>259</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9021,25 +9077,25 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>452</v>
+        <v>261</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>372</v>
+        <v>108</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9053,21 +9109,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9079,15 +9135,17 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9124,37 +9182,37 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9168,14 +9226,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9188,24 +9246,26 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>136</v>
+        <v>355</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9241,19 +9301,19 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9285,46 +9345,44 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>135</v>
+        <v>464</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>331</v>
+        <v>465</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>332</v>
+        <v>466</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9348,13 +9406,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9372,25 +9430,25 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>333</v>
+        <v>463</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>101</v>
+        <v>393</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9404,10 +9462,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9415,7 +9473,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -9430,22 +9488,24 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>462</v>
+        <v>206</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="R65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9465,13 +9525,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9489,10 +9549,10 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>87</v>
@@ -9507,7 +9567,7 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9521,10 +9581,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9547,19 +9607,19 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9608,7 +9668,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9617,16 +9677,16 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>472</v>
+        <v>393</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9635,11 +9695,598 @@
         <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO71" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO66">
+  <autoFilter ref="A1:AO71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9649,7 +10296,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-questionnaire.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T11:08:12+00:00</t>
+    <t>2024-02-15T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -805,7 +805,7 @@
 </t>
   </si>
   <si>
-    <t>Contexte d'usage de la fiche de consignes de saisie de spécifier pour quelle(s) Catégorie(s) d'EG elle est applicable</t>
+    <t>The context that the content is intended to support</t>
   </si>
   <si>
     <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>
@@ -820,267 +820,178 @@
     <t>Definition.useContext</t>
   </si>
   <si>
-    <t>Questionnaire.useContext.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext.code</t>
+    <t>Questionnaire.jurisdiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Intended jurisdiction for questionnaire (if applicable)</t>
+  </si>
+  <si>
+    <t>A legal or geographic region in which the questionnaire is intended to be used.</t>
+  </si>
+  <si>
+    <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Countries and regions within which this artifact is targeted for use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+  </si>
+  <si>
+    <t>Definition.jurisdiction</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
+    <t>Questionnaire.purpose</t>
+  </si>
+  <si>
+    <t>Why this questionnaire is defined</t>
+  </si>
+  <si>
+    <t>Explanation of why this questionnaire is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>This element does not describe the usage of the questionnaire. Instead, it provides traceability of ''why'' the resource is either needed or ''why'' it is defined as it is.  This may be used to point to source materials or specifications that drove the structure of this questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.purpose</t>
+  </si>
+  <si>
+    <t>.reasonCode.text</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>Questionnaire.copyright</t>
+  </si>
+  <si>
+    <t>License
+Restrictions</t>
+  </si>
+  <si>
+    <t>Use and/or publishing restrictions</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the questionnaire and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the questionnaire.</t>
+  </si>
+  <si>
+    <t>Systems are not required to have markdown support, so the text should be readable without markdown processing. The markdown syntax is GFM - see https://github.github.com/gfm/</t>
+  </si>
+  <si>
+    <t>Consumers must be able to determine any legal restrictions on the use of the questionnaire and/or its content.</t>
+  </si>
+  <si>
+    <t>Definition.copyright</t>
+  </si>
+  <si>
+    <t>Questionnaire.approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>Date de validation de la fiche de saisie</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>The 'date' element may be more recent than the approval date because of minor changes or editorial corrections.</t>
+  </si>
+  <si>
+    <t>Definition.approvalDate</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"].act[classCode=CACT;moodCode=EVN;code="approval"].effectiveTime</t>
+  </si>
+  <si>
+    <t>Questionnaire.lastReviewDate</t>
+  </si>
+  <si>
+    <t>Date de dernière revue de la fiche</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
+  </si>
+  <si>
+    <t>If specified, this date follows the original approval date.</t>
+  </si>
+  <si>
+    <t>Gives a sense of how "current" the content is.  Resources that have not been reviewed in a long time may have a risk of being less appropriate/relevant.</t>
+  </si>
+  <si>
+    <t>Definition.lastReviewDate</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"; subsetCode="RECENT"].act[classCode=CACT;moodCode=EVN;code="review"].effectiveTime</t>
+  </si>
+  <si>
+    <t>Questionnaire.effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Periode de validité de la fiche</t>
+  </si>
+  <si>
+    <t>The period during which the questionnaire content was or is planned to be in active use.</t>
+  </si>
+  <si>
+    <t>The effective period for a questionnaire  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 might be published in 2015.</t>
+  </si>
+  <si>
+    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the questionnaire are or are expected to be used instead.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>Definition.effectivePeriod</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Questionnaire.code</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Type of context being specified</t>
-  </si>
-  <si>
-    <t>A code that identifies the type of context being specified by this usage context.</t>
+    <t>Catégorie(s) d'EG pour la(es)quelle(s) cette fiche de consigne de saisie est disponible</t>
+  </si>
+  <si>
+    <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R67-TypeStructure-EJ-EG/FHIR/TRE-R67-TypeStructure-EJ-EG"/&gt;
-  &lt;code value="EG"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/ValueSet/ror-usage-context-type-vs</t>
-  </si>
-  <si>
-    <t>UsageContext.code</t>
-  </si>
-  <si>
-    <t>CV</t>
+    <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J55-CategorieEG-ROR/FHIR/JDV-J55-CategorieEG-ROR</t>
+  </si>
+  <si>
+    <t>.code</t>
   </si>
   <si>
     <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext.value[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-QuantityRangeReference(PlanDefinition|ResearchStudy|InsurancePlan|HealthcareService|Group|Location|Organization)</t>
-  </si>
-  <si>
-    <t>Value that defines the context</t>
-  </si>
-  <si>
-    <t>A value that defines the context specified in this context of use. The interpretation of the value is defined by the code.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code that defines the specific value for the context being specified.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/use-context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>UsageContext.value[x]</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Catégorie(s) d'EG pour la(es)quelle(s) cette fiche de consigne de saisie est disponible</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J55-CategorieEG-ROR/FHIR/JDV-J55-CategorieEG-ROR</t>
-  </si>
-  <si>
-    <t>Questionnaire.jurisdiction</t>
-  </si>
-  <si>
-    <t>Intended jurisdiction for questionnaire (if applicable)</t>
-  </si>
-  <si>
-    <t>A legal or geographic region in which the questionnaire is intended to be used.</t>
-  </si>
-  <si>
-    <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
-  </si>
-  <si>
-    <t>Countries and regions within which this artifact is targeted for use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
-  </si>
-  <si>
-    <t>Definition.jurisdiction</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>Questionnaire.purpose</t>
-  </si>
-  <si>
-    <t>Why this questionnaire is defined</t>
-  </si>
-  <si>
-    <t>Explanation of why this questionnaire is needed and why it has been designed as it has.</t>
-  </si>
-  <si>
-    <t>This element does not describe the usage of the questionnaire. Instead, it provides traceability of ''why'' the resource is either needed or ''why'' it is defined as it is.  This may be used to point to source materials or specifications that drove the structure of this questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.purpose</t>
-  </si>
-  <si>
-    <t>.reasonCode.text</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>Questionnaire.copyright</t>
-  </si>
-  <si>
-    <t>License
-Restrictions</t>
-  </si>
-  <si>
-    <t>Use and/or publishing restrictions</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the questionnaire and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the questionnaire.</t>
-  </si>
-  <si>
-    <t>Systems are not required to have markdown support, so the text should be readable without markdown processing. The markdown syntax is GFM - see https://github.github.com/gfm/</t>
-  </si>
-  <si>
-    <t>Consumers must be able to determine any legal restrictions on the use of the questionnaire and/or its content.</t>
-  </si>
-  <si>
-    <t>Definition.copyright</t>
-  </si>
-  <si>
-    <t>Questionnaire.approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>Date de validation de la fiche de saisie</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>The 'date' element may be more recent than the approval date because of minor changes or editorial corrections.</t>
-  </si>
-  <si>
-    <t>Definition.approvalDate</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"].act[classCode=CACT;moodCode=EVN;code="approval"].effectiveTime</t>
-  </si>
-  <si>
-    <t>Questionnaire.lastReviewDate</t>
-  </si>
-  <si>
-    <t>Date de dernière revue de la fiche</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
-  </si>
-  <si>
-    <t>If specified, this date follows the original approval date.</t>
-  </si>
-  <si>
-    <t>Gives a sense of how "current" the content is.  Resources that have not been reviewed in a long time may have a risk of being less appropriate/relevant.</t>
-  </si>
-  <si>
-    <t>Definition.lastReviewDate</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"; subsetCode="RECENT"].act[classCode=CACT;moodCode=EVN;code="review"].effectiveTime</t>
-  </si>
-  <si>
-    <t>Questionnaire.effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Periode de validité de la fiche</t>
-  </si>
-  <si>
-    <t>The period during which the questionnaire content was or is planned to be in active use.</t>
-  </si>
-  <si>
-    <t>The effective period for a questionnaire  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 might be published in 2015.</t>
-  </si>
-  <si>
-    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the questionnaire are or are expected to be used instead.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>Definition.effectivePeriod</t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>Questionnaire.code</t>
-  </si>
-  <si>
-    <t>Concept that represents the overall questionnaire</t>
-  </si>
-  <si>
-    <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>
-  </si>
-  <si>
-    <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
-  </si>
-  <si>
-    <t>Codes for questionnaires, groups and individual questions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions</t>
-  </si>
-  <si>
-    <t>.code</t>
   </si>
   <si>
     <t>Questionnaire.item</t>
@@ -1113,7 +1024,22 @@
     <t>Questionnaire.item.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t>Questionnaire.item.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -1189,6 +1115,15 @@
   </si>
   <si>
     <t>Allows linking of groups of questions to formal terminologies.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for questionnaires, groups and individual questions.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions</t>
   </si>
   <si>
     <t>Questionnaire.item.prefix</t>
@@ -1880,7 +1815,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO71"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1889,9 +1824,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.89453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1899,7 +1834,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.77734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4653,13 +4588,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
@@ -4775,7 +4710,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4784,18 +4719,20 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4820,13 +4757,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4844,25 +4781,25 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4871,26 +4808,26 @@
         <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4902,16 +4839,16 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4949,43 +4886,43 @@
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>101</v>
+        <v>273</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4993,18 +4930,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -5016,21 +4953,23 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5039,7 +4978,7 @@
         <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -5054,11 +4993,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5076,10 +5017,10 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>87</v>
@@ -5091,27 +5032,27 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5119,30 +5060,32 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5167,32 +5110,34 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -5204,16 +5149,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5221,14 +5166,12 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5246,19 +5189,23 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5282,32 +5229,34 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>87</v>
@@ -5319,16 +5268,16 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5336,10 +5285,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5350,10 +5299,10 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5362,18 +5311,20 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5397,13 +5348,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5421,22 +5372,22 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>302</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>173</v>
@@ -5445,18 +5396,18 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5464,33 +5415,35 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5514,13 +5467,11 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5538,13 +5489,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5553,41 +5504,41 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
@@ -5596,20 +5547,18 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5657,31 +5606,31 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5689,10 +5638,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5706,7 +5655,7 @@
         <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
@@ -5715,17 +5664,15 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5774,7 +5721,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5783,22 +5730,22 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>108</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5806,24 +5753,24 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
@@ -5832,20 +5779,18 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>320</v>
+        <v>136</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5881,43 +5826,43 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>325</v>
+        <v>101</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -5925,45 +5870,45 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>327</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>330</v>
+        <v>138</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>331</v>
+        <v>147</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6012,42 +5957,42 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>332</v>
+        <v>143</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6055,10 +6000,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6067,19 +6012,19 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>338</v>
@@ -6107,13 +6052,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6131,13 +6076,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>99</v>
@@ -6149,7 +6094,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6158,15 +6103,15 @@
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6177,7 +6122,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>88</v>
@@ -6189,18 +6134,20 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6248,25 +6195,25 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>347</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>348</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6280,10 +6227,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6294,7 +6241,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6306,16 +6253,20 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6339,13 +6290,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6363,25 +6314,25 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6390,26 +6341,26 @@
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>134</v>
+        <v>355</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6421,18 +6372,20 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>136</v>
+        <v>356</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>357</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6468,37 +6421,37 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>101</v>
+        <v>360</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6512,46 +6465,44 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6599,25 +6550,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6631,10 +6582,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6657,19 +6608,19 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6694,13 +6645,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6718,7 +6669,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -6736,7 +6687,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6750,10 +6701,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6764,31 +6715,31 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I42" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6837,25 +6788,25 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>378</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6869,10 +6820,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6883,7 +6834,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6895,20 +6846,16 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>266</v>
+        <v>168</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6932,13 +6879,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6956,25 +6903,25 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6983,26 +6930,26 @@
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>375</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7014,20 +6961,18 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>376</v>
+        <v>136</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7063,37 +7008,37 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>380</v>
+        <v>101</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7114,37 +7059,39 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7192,25 +7139,25 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7224,10 +7171,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7250,20 +7197,18 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7287,13 +7232,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7311,7 +7256,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
@@ -7329,7 +7274,7 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7343,10 +7288,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7354,35 +7299,33 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>343</v>
+        <v>110</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7406,13 +7349,13 @@
         <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>80</v>
@@ -7430,25 +7373,25 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>398</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7462,10 +7405,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7473,7 +7416,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>87</v>
@@ -7488,13 +7431,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>168</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>260</v>
+        <v>395</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7521,13 +7464,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7545,25 +7488,25 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>261</v>
+        <v>392</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>108</v>
+        <v>372</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7577,21 +7520,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7603,16 +7546,16 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>136</v>
+        <v>400</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>263</v>
+        <v>401</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>138</v>
+        <v>402</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7638,49 +7581,49 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>401</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>403</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>404</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>101</v>
+        <v>372</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7694,50 +7637,50 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="R50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7781,25 +7724,25 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>410</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>101</v>
+        <v>372</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7813,10 +7756,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7824,7 +7767,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>87</v>
@@ -7839,22 +7782,26 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="R51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7898,16 +7845,16 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>410</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>100</v>
@@ -7916,7 +7863,7 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7930,10 +7877,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7941,7 +7888,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>87</v>
@@ -7956,18 +7903,20 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -7991,13 +7940,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8015,16 +7964,16 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>422</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>100</v>
@@ -8033,7 +7982,7 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8047,10 +7996,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8058,7 +8007,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
@@ -8073,15 +8022,17 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8106,13 +8057,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8130,16 +8081,16 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>100</v>
@@ -8148,7 +8099,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8157,15 +8108,15 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8179,7 +8130,7 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8188,16 +8139,16 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8223,13 +8174,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8247,7 +8198,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8256,7 +8207,7 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>100</v>
@@ -8265,7 +8216,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8279,10 +8230,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8293,10 +8244,10 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
@@ -8305,24 +8256,22 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8366,16 +8315,16 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8384,7 +8333,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8398,10 +8347,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8424,26 +8373,20 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>323</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q56" t="s" s="2">
-        <v>436</v>
-      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8487,7 +8430,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>431</v>
+        <v>325</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8496,16 +8439,16 @@
         <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>392</v>
+        <v>108</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8519,21 +8462,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8545,20 +8488,18 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>438</v>
+        <v>136</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
+        <v>327</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8594,37 +8535,37 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>437</v>
+        <v>328</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>442</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>392</v>
+        <v>101</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8638,44 +8579,46 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>444</v>
+        <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>445</v>
+        <v>331</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>446</v>
+        <v>332</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8723,25 +8666,25 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>443</v>
+        <v>333</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>448</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>392</v>
+        <v>101</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8750,15 +8693,15 @@
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8766,13 +8709,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
@@ -8781,16 +8724,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8816,13 +8759,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -8840,16 +8783,16 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>454</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
@@ -8858,7 +8801,7 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8872,10 +8815,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8886,7 +8829,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8898,22 +8841,24 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>343</v>
+        <v>206</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="R60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8957,16 +8902,16 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>454</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>100</v>
@@ -8975,7 +8920,7 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8989,10 +8934,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9003,7 +8948,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9015,16 +8960,20 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>259</v>
+        <v>453</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9072,25 +9021,25 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>261</v>
+        <v>452</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>108</v>
+        <v>372</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9104,21 +9053,21 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9130,17 +9079,15 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>136</v>
+        <v>323</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9177,37 +9124,37 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9221,14 +9168,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>353</v>
+        <v>134</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9241,26 +9188,24 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>354</v>
+        <v>136</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="O63" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9296,19 +9241,19 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9340,44 +9285,46 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>463</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>464</v>
+        <v>331</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>465</v>
+        <v>332</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9401,13 +9348,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9425,25 +9372,25 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>462</v>
+        <v>333</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>392</v>
+        <v>101</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9457,10 +9404,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9468,7 +9415,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -9483,24 +9430,22 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>206</v>
+        <v>462</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q65" t="s" s="2">
-        <v>471</v>
-      </c>
+      <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9520,13 +9465,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9544,10 +9489,10 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>87</v>
@@ -9562,7 +9507,7 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9576,10 +9521,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9602,19 +9547,19 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>343</v>
+        <v>81</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9663,7 +9608,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9672,16 +9617,16 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>392</v>
+        <v>472</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9690,598 +9635,11 @@
         <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO71" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO71">
+  <autoFilter ref="A1:AO66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10291,7 +9649,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
